--- a/output/02-20-24.xlsx
+++ b/output/02-20-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,106 +503,106 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>7371.T</t>
+          <t>ELEAV.HE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zenken Corporation</t>
+          <t>Elecster Oyj</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Specialty Business Services</t>
+          <t>Specialty Industrial Machinery</t>
         </is>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>-2944213000</v>
+        <v>-796000</v>
       </c>
       <c r="H2" t="n">
-        <v>3941478000</v>
+        <v>11434000</v>
       </c>
       <c r="I2" t="n">
-        <v>13.88</v>
+        <v>14.75</v>
       </c>
       <c r="J2" t="n">
-        <v>855837000</v>
+        <v>1100600</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>6165492000</v>
+        <v>7462492</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>LUS1.DE</t>
+          <t>2814.T</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lang &amp; Schwarz Aktiengesellschaft</t>
+          <t>Sato Foods Industries Co., Ltd.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Frankfurt Stock Exchange</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>-96733917</v>
+        <v>-8931995000</v>
       </c>
       <c r="H3" t="n">
-        <v>153757000</v>
+        <v>9005793000</v>
       </c>
       <c r="I3" t="n">
-        <v>33.01</v>
+        <v>10.36</v>
       </c>
       <c r="J3" t="n">
-        <v>29973600</v>
+        <v>778468400</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>90793560</v>
+        <v>7511986944</v>
       </c>
       <c r="M3" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -611,52 +611,52 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5936.T</t>
+          <t>CRCT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toyo Shutter Co., Ltd.</t>
+          <t>Cricut, Inc.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>NASDAQ Global Select</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Building Products &amp; Equipment</t>
+          <t>Computer Hardware</t>
         </is>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-590646000</v>
+        <v>-57331000</v>
       </c>
       <c r="H4" t="n">
-        <v>3479917000</v>
+        <v>224943000</v>
       </c>
       <c r="I4" t="n">
-        <v>19.98</v>
+        <v>10.47</v>
       </c>
       <c r="J4" t="n">
-        <v>926389800</v>
+        <v>28582000</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>4636366488</v>
+        <v>272903800</v>
       </c>
       <c r="M4" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
@@ -665,12 +665,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PETS</t>
+          <t>BRLT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PetMed Express, Inc.</t>
+          <t>Brilliant Earth Group, Inc.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -680,51 +680,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NASDAQ Global Select</t>
+          <t>NASDAQ Global Market</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pharmaceutical Retailers</t>
+          <t>Luxury Goods</t>
         </is>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>-51634000</v>
+        <v>-44794000</v>
       </c>
       <c r="H5" t="n">
-        <v>104086000</v>
+        <v>154854000</v>
       </c>
       <c r="I5" t="n">
-        <v>28.68</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>31596600</v>
+        <v>14376400</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>110175870</v>
+        <v>38131530</v>
       </c>
       <c r="M5" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RMR</t>
+          <t>MOV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The RMR Group Inc.</t>
+          <t>Movado Group, Inc.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,51 +734,51 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NASDAQ Capital Market</t>
+          <t>New York Stock Exchange</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Luxury Goods</t>
         </is>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-166243000</v>
+        <v>-108151000</v>
       </c>
       <c r="H6" t="n">
-        <v>267989000</v>
+        <v>252179000</v>
       </c>
       <c r="I6" t="n">
-        <v>28.3</v>
+        <v>14.74</v>
       </c>
       <c r="J6" t="n">
-        <v>110088200</v>
+        <v>66258800</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>388947412</v>
+        <v>449658627</v>
       </c>
       <c r="M6" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4433.T</t>
+          <t>7371.T</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HITO-Communications Holdings,Inc.</t>
+          <t>Zenken Corporation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -793,154 +793,154 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Staffing &amp; Employment Services</t>
+          <t>Specialty Business Services</t>
         </is>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-5283000000</v>
+        <v>-2944213000</v>
       </c>
       <c r="H7" t="n">
-        <v>16121000000</v>
+        <v>3941478000</v>
       </c>
       <c r="I7" t="n">
-        <v>14.06</v>
+        <v>13.88</v>
       </c>
       <c r="J7" t="n">
-        <v>2931800000</v>
+        <v>855837000</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>20857727023</v>
+        <v>6165492000</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BMTX</t>
+          <t>LUS1.DE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BM Technologies, Inc.</t>
+          <t>Lang &amp; Schwarz Aktiengesellschaft</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>American Stock Exchange</t>
+          <t>Frankfurt Stock Exchange</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Software—Application</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-8802000</v>
+        <v>-96733917</v>
       </c>
       <c r="H8" t="n">
-        <v>21108000</v>
+        <v>153757000</v>
       </c>
       <c r="I8" t="n">
-        <v>14.78</v>
+        <v>32.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3508248.8</v>
+        <v>29973600</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>23739800</v>
+        <v>91548600</v>
       </c>
       <c r="M8" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CFP.TO</t>
+          <t>PETS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Canfor Corporation</t>
+          <t>PetMed Express, Inc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Toronto Stock Exchange</t>
+          <t>NASDAQ Global Select</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lumber &amp; Wood Production</t>
+          <t>Pharmaceutical Retailers</t>
         </is>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-419300000</v>
+        <v>-51634000</v>
       </c>
       <c r="H9" t="n">
-        <v>1268700000</v>
+        <v>104086000</v>
       </c>
       <c r="I9" t="n">
-        <v>29.61</v>
+        <v>28.79</v>
       </c>
       <c r="J9" t="n">
-        <v>575820000</v>
+        <v>31596600</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1944792520</v>
+        <v>109752930</v>
       </c>
       <c r="M9" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2120.T</t>
+          <t>5936.T</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LIFULL Co., Ltd.</t>
+          <t>Toyo Shutter Co., Ltd.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -955,32 +955,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Building Products &amp; Equipment</t>
         </is>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-8722000000</v>
+        <v>-590646000</v>
       </c>
       <c r="H10" t="n">
-        <v>16510000000</v>
+        <v>3479917000</v>
       </c>
       <c r="I10" t="n">
-        <v>12.8</v>
+        <v>19.98</v>
       </c>
       <c r="J10" t="n">
-        <v>2736042600</v>
+        <v>926389800</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>21375140117</v>
+        <v>4636366488</v>
       </c>
       <c r="M10" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -989,12 +989,12 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GPRO</t>
+          <t>RMR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GoPro, Inc.</t>
+          <t>The RMR Group Inc.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1004,91 +1004,91 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NASDAQ Global Select</t>
+          <t>NASDAQ Capital Market</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-94046000</v>
+        <v>-166243000</v>
       </c>
       <c r="H11" t="n">
-        <v>222708000</v>
+        <v>267989000</v>
       </c>
       <c r="I11" t="n">
-        <v>13.51</v>
+        <v>28.72</v>
       </c>
       <c r="J11" t="n">
-        <v>49526800</v>
+        <v>110088200</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>366588209</v>
+        <v>383292280</v>
       </c>
       <c r="M11" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ALHEX.PA</t>
+          <t>BMTX</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hexaom S.A.</t>
+          <t>BM Technologies, Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>American Stock Exchange</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Residential Construction</t>
+          <t>Software—Application</t>
         </is>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-48523000</v>
+        <v>-8802000</v>
       </c>
       <c r="H12" t="n">
-        <v>126476000</v>
+        <v>21108000</v>
       </c>
       <c r="I12" t="n">
-        <v>13.16</v>
+        <v>15.72</v>
       </c>
       <c r="J12" t="n">
-        <v>18036400</v>
+        <v>3508248.8</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>137021420</v>
+        <v>22315412</v>
       </c>
       <c r="M12" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1097,106 +1097,106 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AAZ.L</t>
+          <t>4433.T</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Anglo Asian Mining PLC</t>
+          <t>HITO-Communications Holdings,Inc.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>London Stock Exchange</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Staffing &amp; Employment Services</t>
         </is>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-7048000</v>
+        <v>-5283000000</v>
       </c>
       <c r="H13" t="n">
-        <v>20410000</v>
+        <v>16121000000</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>14.06</v>
       </c>
       <c r="J13" t="n">
-        <v>18315000</v>
+        <v>2931800000</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>70430193</v>
+        <v>20857727023</v>
       </c>
       <c r="M13" t="n">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HONBS.HE</t>
+          <t>CFP.TO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Honkarakenne Oyj</t>
+          <t>Canfor Corporation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Toronto Stock Exchange</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Residential Construction</t>
+          <t>Lumber &amp; Wood Production</t>
         </is>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-5800000</v>
+        <v>-419300000</v>
       </c>
       <c r="H14" t="n">
-        <v>12631000</v>
+        <v>1268700000</v>
       </c>
       <c r="I14" t="n">
-        <v>18.56</v>
+        <v>29.37</v>
       </c>
       <c r="J14" t="n">
-        <v>3160400</v>
+        <v>575820000</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>17024902</v>
+        <v>1960322190</v>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -1205,160 +1205,160 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GSJ.MC</t>
+          <t>GPRO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Grupo Empresarial San José, S.A.</t>
+          <t>GoPro, Inc.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Madrid Stock Exchange</t>
+          <t>NASDAQ Global Select</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-256311000</v>
+        <v>-94046000</v>
       </c>
       <c r="H15" t="n">
-        <v>307005000</v>
+        <v>222708000</v>
       </c>
       <c r="I15" t="n">
-        <v>17.74</v>
+        <v>17.72</v>
       </c>
       <c r="J15" t="n">
-        <v>43149800</v>
+        <v>49526800</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>243197614</v>
+        <v>279421880</v>
       </c>
       <c r="M15" t="n">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ALL.L</t>
+          <t>GDRX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Atlantic Lithium Limited</t>
+          <t>GoodRx Holdings, Inc.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>London Stock Exchange</t>
+          <t>NASDAQ Global Select</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Other Industrial Metals &amp; Mining</t>
+          <t>Health Information Services</t>
         </is>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-620598842</v>
+        <v>-83426000</v>
       </c>
       <c r="H16" t="n">
-        <v>15345917</v>
+        <v>757165000</v>
       </c>
       <c r="I16" t="n">
-        <v>164.17</v>
+        <v>15.17</v>
       </c>
       <c r="J16" t="n">
-        <v>198594939</v>
+        <v>90147400</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>120968368</v>
+        <v>594133929</v>
       </c>
       <c r="M16" t="n">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ALQWA.PA</t>
+          <t>2120.T</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qwamplify</t>
+          <t>LIFULL Co., Ltd.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Advertising Agencies</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-9228929</v>
+        <v>-8722000000</v>
       </c>
       <c r="H17" t="n">
-        <v>14826459</v>
+        <v>16510000000</v>
       </c>
       <c r="I17" t="n">
-        <v>11.99</v>
+        <v>12.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2247690</v>
+        <v>2736042600</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>18744297</v>
+        <v>21375140117</v>
       </c>
       <c r="M17" t="n">
-        <v>11.8</v>
+        <v>4.6</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
@@ -1367,52 +1367,52 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>WISE.L</t>
+          <t>ALHEX.PA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wise plc</t>
+          <t>Hexaom S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>London Stock Exchange</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Information Technology Services</t>
+          <t>Residential Construction</t>
         </is>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-8698200000</v>
+        <v>-48523000</v>
       </c>
       <c r="H18" t="n">
-        <v>7679400000</v>
+        <v>126476000</v>
       </c>
       <c r="I18" t="n">
-        <v>25.26</v>
+        <v>13.26</v>
       </c>
       <c r="J18" t="n">
-        <v>2185680000</v>
+        <v>18036400</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>8651169561</v>
+        <v>135993759</v>
       </c>
       <c r="M18" t="n">
-        <v>14.9</v>
+        <v>5.3</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1421,106 +1421,106 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SOFT.BR</t>
+          <t>AAZ.L</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Softimat S.A.</t>
+          <t>Anglo Asian Mining PLC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>London Stock Exchange</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-925000</v>
+        <v>-7048000</v>
       </c>
       <c r="H19" t="n">
-        <v>592000</v>
+        <v>20410000</v>
       </c>
       <c r="I19" t="n">
-        <v>75.83</v>
+        <v>27.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3721800</v>
+        <v>18315000</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>4907825</v>
+        <v>66831570</v>
       </c>
       <c r="M19" t="n">
-        <v>20.3</v>
+        <v>8.4</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ALFPC.PA</t>
+          <t>HONBS.HE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fountaine Pajot Société anonyme</t>
+          <t>Honkarakenne Oyj</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Recreational Vehicles</t>
+          <t>Residential Construction</t>
         </is>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-41559064</v>
+        <v>-5800000</v>
       </c>
       <c r="H20" t="n">
-        <v>145427000</v>
+        <v>12631000</v>
       </c>
       <c r="I20" t="n">
-        <v>15.32</v>
+        <v>18.87</v>
       </c>
       <c r="J20" t="n">
-        <v>28991554.6</v>
+        <v>3160400</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>189195420</v>
+        <v>16745805</v>
       </c>
       <c r="M20" t="n">
-        <v>37.5</v>
+        <v>8.9</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -1529,52 +1529,52 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>KARO</t>
+          <t>GSJ.MC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Karooooo Ltd.</t>
+          <t>Grupo Empresarial San José, S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NASDAQ Capital Market</t>
+          <t>Madrid Stock Exchange</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Software—Application</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-531764000</v>
+        <v>-256311000</v>
       </c>
       <c r="H21" t="n">
-        <v>965750000</v>
+        <v>307005000</v>
       </c>
       <c r="I21" t="n">
-        <v>46.15</v>
+        <v>17.89</v>
       </c>
       <c r="J21" t="n">
-        <v>351637600</v>
+        <v>43149800</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>762016082</v>
+        <v>241246831</v>
       </c>
       <c r="M21" t="n">
-        <v>45.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N21" t="n">
         <v>0.5</v>
@@ -1583,109 +1583,433 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HSII</t>
+          <t>ALL.L</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Heidrick &amp; Struggles International, Inc.</t>
+          <t>Atlantic Lithium Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NASDAQ Global Select</t>
+          <t>London Stock Exchange</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Staffing &amp; Employment Services</t>
+          <t>Other Industrial Metals &amp; Mining</t>
         </is>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-209603000</v>
+        <v>-620598842</v>
       </c>
       <c r="H22" t="n">
-        <v>355489000</v>
+        <v>15345917</v>
       </c>
       <c r="I22" t="n">
-        <v>19.35</v>
+        <v>158.39</v>
       </c>
       <c r="J22" t="n">
-        <v>112316200</v>
+        <v>198594939</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>580324248</v>
+        <v>125386117</v>
       </c>
       <c r="M22" t="n">
-        <v>52.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>WISE.L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wise plc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>London Stock Exchange</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-8698200000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7679400000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2185680000</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8589682926</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>SOFT.BR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Softimat S.A.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Real Estate Services</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-925000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>592000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>75.83</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3721800</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4907825</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>ALFPC.PA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fountaine Pajot Société anonyme</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Recreational Vehicles</t>
+        </is>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-41559064</v>
+      </c>
+      <c r="H25" t="n">
+        <v>145427000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="J25" t="n">
+        <v>28991554.6</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>190862340</v>
+      </c>
+      <c r="M25" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>KARO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Karooooo Ltd.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NASDAQ Capital Market</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-531764000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>965750000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="J26" t="n">
+        <v>351637600</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>766349236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>HSII</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Heidrick &amp; Struggles International, Inc.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NASDAQ Global Select</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Staffing &amp; Employment Services</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-209603000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>355489000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>112316200</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>581531580</v>
+      </c>
+      <c r="M27" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>HLAG.DE</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Hapag-Lloyd Aktiengesellschaft</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Frankfurt Stock Exchange</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Marine Shipping</t>
         </is>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
         <v>-895400000</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>15236100000</v>
       </c>
-      <c r="I23" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I28" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="J28" t="n">
         <v>6385980000</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>23639720000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>23059712000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="N28" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SSRM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SSR Mining Inc.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NASDAQ Global Select</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-104352000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>689106000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="J29" t="n">
+        <v>125959000</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>941981040</v>
+      </c>
+      <c r="M29" t="n">
+        <v>656.9</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
